--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="PAGOS Zavaleta &amp; Obrador FEB-23" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -83,6 +89,49 @@
   <si>
     <t>REMISIONES    POR     CREDITOS    DE   ENERO        2 0 2 3</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEPOSITOS  ZAVALETA   A     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF990033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ODELPA</t>
+    </r>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>FECHA DEPOSITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odelpa </t>
+  </si>
+  <si>
+    <t>DEUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAVALETA </t>
+  </si>
+  <si>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t>Depositos</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +143,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +279,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +411,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -451,30 +612,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -582,18 +798,6 @@
     <xf numFmtId="44" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,6 +874,108 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="27" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -677,6 +983,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -794,6 +1105,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>479377</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="0"/>
+          <a:ext cx="9699577" cy="11766300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1062,959 +1416,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="86" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="18" style="90" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="78" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="18" style="82" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
         <v>608</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="23">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="19">
         <f t="shared" ref="H4:H47" si="0">E4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
         <v>609</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
         <v>610</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="23">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="19">
+      <c r="A7" s="23"/>
+      <c r="B7" s="15">
         <v>611</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="23">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>612</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="30">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
         <v>613</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
         <v>614</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="23">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
         <v>615</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
         <v>616</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="23">
+      <c r="C12" s="29"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
         <v>617</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="23">
+      <c r="C13" s="30"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <v>618</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="23">
+      <c r="C14" s="31"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
         <v>619</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="23">
+      <c r="C15" s="32"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
         <v>620</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="23">
+      <c r="C16" s="31"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
         <v>621</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="23">
+      <c r="C17" s="30"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
         <v>622</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23">
+      <c r="C18" s="29"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
         <v>623</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="23">
+      <c r="C19" s="30"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
         <v>624</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="23">
+      <c r="C20" s="29"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
         <v>625</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23">
+      <c r="C21" s="29"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
         <v>626</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="23">
+      <c r="C22" s="29"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
         <v>627</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23">
+      <c r="C23" s="29"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
         <v>628</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23">
+      <c r="C24" s="29"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="19">
+      <c r="A25" s="23"/>
+      <c r="B25" s="15">
         <v>629</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="23">
+      <c r="C25" s="29"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="19">
+      <c r="A26" s="23"/>
+      <c r="B26" s="15">
         <v>630</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="23">
+      <c r="C26" s="29"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="19">
+      <c r="A27" s="23"/>
+      <c r="B27" s="15">
         <v>631</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="23">
+      <c r="C27" s="29"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="19">
+      <c r="A28" s="23"/>
+      <c r="B28" s="15">
         <v>632</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="23">
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="19">
+      <c r="A29" s="23"/>
+      <c r="B29" s="15">
         <v>633</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="23">
+      <c r="C29" s="29"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="19">
+      <c r="A30" s="23"/>
+      <c r="B30" s="15">
         <v>634</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="23">
+      <c r="C30" s="29"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="19">
+      <c r="A31" s="23"/>
+      <c r="B31" s="15">
         <v>635</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="23">
+      <c r="C31" s="29"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="19">
+      <c r="A32" s="23"/>
+      <c r="B32" s="15">
         <v>636</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="23">
+      <c r="C32" s="29"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="19">
+      <c r="A33" s="23"/>
+      <c r="B33" s="15">
         <v>637</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="23">
+      <c r="C33" s="29"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="19">
+      <c r="A34" s="23"/>
+      <c r="B34" s="15">
         <v>638</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="23">
+      <c r="C34" s="29"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="19">
+      <c r="A35" s="23"/>
+      <c r="B35" s="15">
         <v>639</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="23">
+      <c r="C35" s="29"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="19">
+      <c r="A36" s="23"/>
+      <c r="B36" s="15">
         <v>640</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="23">
+      <c r="C36" s="29"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="19">
+      <c r="A37" s="23"/>
+      <c r="B37" s="15">
         <v>641</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="23">
+      <c r="C37" s="29"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="19">
+      <c r="A38" s="23"/>
+      <c r="B38" s="15">
         <v>642</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="23">
+      <c r="C38" s="29"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="19">
+      <c r="A39" s="23"/>
+      <c r="B39" s="15">
         <v>643</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="23">
+      <c r="C39" s="29"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="19">
+      <c r="A40" s="23"/>
+      <c r="B40" s="15">
         <v>644</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="23">
+      <c r="C40" s="29"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="19">
+      <c r="A41" s="23"/>
+      <c r="B41" s="15">
         <v>645</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="23">
+      <c r="C41" s="29"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="19">
+      <c r="A42" s="23"/>
+      <c r="B42" s="15">
         <v>646</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="23">
+      <c r="C42" s="29"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="19">
+      <c r="A43" s="23"/>
+      <c r="B43" s="15">
         <v>647</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="23">
+      <c r="C43" s="29"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="19">
+      <c r="A44" s="23"/>
+      <c r="B44" s="15">
         <v>648</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="23">
+      <c r="C44" s="29"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="19">
+      <c r="A45" s="23"/>
+      <c r="B45" s="15">
         <v>649</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="23">
+      <c r="C45" s="29"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="19">
+      <c r="A46" s="23"/>
+      <c r="B46" s="15">
         <v>650</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="23">
+      <c r="C46" s="29"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41">
-        <v>0</v>
-      </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="5"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37">
+        <v>0</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47">
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43">
         <f>SUM(E4:E47)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47">
+      <c r="F48" s="43"/>
+      <c r="G48" s="43">
         <f>SUM(G4:G47)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="44">
         <f>SUM(H23:H47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="5"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="53" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="54" t="s">
+      <c r="F50" s="46"/>
+      <c r="G50" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="5"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="55">
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="91">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="57"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="93"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51"/>
-      <c r="I53" s="5"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="58" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="I54" s="5"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
-      <c r="I55" s="5"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="5"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="5"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="5"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="5"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="5"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="5"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="5"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="5"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="5"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="5"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="71"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="71"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2026,4 +2383,842 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A2:Z61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="14" style="95" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="95"/>
+    <col min="4" max="4" width="20" style="53" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="95" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="Z2" s="136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="106"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="20">
+        <f>E47+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E47" si="0">E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J29" si="1">J5+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="109"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="102"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="102"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="102"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="102"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="102"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="102"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="102"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="102"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="102"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118">
+        <v>44965</v>
+      </c>
+      <c r="H28" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="138">
+        <v>-2029341.58</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-2029341.58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="20">
+        <f t="shared" si="1"/>
+        <v>-2029341.58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
+    </row>
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="57"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="102"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="102"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="102"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="102"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="102"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="102"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="102"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="102"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="102"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="102"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="102"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="102"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="102"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="102"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="102"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="102"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="101"/>
+      <c r="D48"/>
+      <c r="E48" s="125"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="101"/>
+      <c r="D49"/>
+      <c r="E49" s="125"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="101"/>
+      <c r="D50"/>
+      <c r="E50" s="125"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="101"/>
+      <c r="D51"/>
+      <c r="E51" s="125"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="101"/>
+      <c r="D52"/>
+      <c r="E52" s="125"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="101"/>
+      <c r="D53"/>
+      <c r="E53" s="125"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="C54" s="101"/>
+      <c r="D54" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C55" s="101"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="127">
+        <v>44892</v>
+      </c>
+      <c r="C56" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="129">
+        <v>1884182.28</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="127"/>
+      <c r="C57" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="22">
+        <v>-691750</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="127">
+        <v>44924</v>
+      </c>
+      <c r="C58" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="132">
+        <v>-184075.5</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="127"/>
+      <c r="C59" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="134">
+        <f>SUM(D56:D58)</f>
+        <v>1008356.78</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="135"/>
+      <c r="C60" s="101"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="135"/>
+      <c r="C61" s="101"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>XXXX</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>NORMA LEDO   ( CENTRAL )</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -679,12 +685,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,34 +911,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,6 +986,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1421,8 +1461,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1439,25 +1479,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="132"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1488,13 +1528,19 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="14">
+        <v>44935</v>
+      </c>
       <c r="B4" s="15">
         <v>608</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
       <c r="H4" s="19">
@@ -1504,33 +1550,45 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44935</v>
+      </c>
       <c r="B5" s="15">
         <v>609</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20">
+        <v>22440</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22440</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44935</v>
+      </c>
       <c r="B6" s="15">
         <v>610</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3668</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,7 +2213,7 @@
       <c r="D48" s="42"/>
       <c r="E48" s="43">
         <f>SUM(E4:E47)</f>
-        <v>0</v>
+        <v>26108</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43">
@@ -2206,12 +2264,12 @@
       <c r="B52" s="40"/>
       <c r="C52" s="41"/>
       <c r="D52" s="42"/>
-      <c r="E52" s="91">
+      <c r="E52" s="134">
         <f>E48-G48</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="92"/>
-      <c r="G52" s="93"/>
+        <v>26108</v>
+      </c>
+      <c r="F52" s="135"/>
+      <c r="G52" s="136"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2227,11 +2285,11 @@
       <c r="B54" s="40"/>
       <c r="C54" s="41"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,13 +2445,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D9:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="4:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="139"/>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="140"/>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="140"/>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="140"/>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="140"/>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="140"/>
+    </row>
+    <row r="16" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="141"/>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2404,459 +2492,459 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="14" style="95" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="95"/>
+    <col min="1" max="1" width="3.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="14" style="87" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="87"/>
     <col min="4" max="4" width="20" style="53" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="95" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="92" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="Z2" s="136" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="Z2" s="127" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20">
         <f>E4+D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="108"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="104"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="22"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="104"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="22"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="104"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="22"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="104"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="104"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="22"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="104"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="22"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="104"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="22"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="104"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="22"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="104"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="22"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="104"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="22"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="104"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="22"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="22"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="22"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="22"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="22"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="22"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="113"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="104"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="22"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="113"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="104"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="22"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="22"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118">
+      <c r="F28" s="108"/>
+      <c r="G28" s="109">
         <v>44965</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="138">
+      <c r="I28" s="129">
         <v>-2029341.58</v>
       </c>
       <c r="J28" s="20">
@@ -2865,177 +2953,177 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="22"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>-2029341.58</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="22"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="111"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B31" s="57"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="111"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="102"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="123"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="102"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="123"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="102"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="123"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="102"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="102"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="104"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="102"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="104"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="102"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="104"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="104"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="102"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="104"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="102"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="124">
+      <c r="B41" s="93"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="102"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="104"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="104"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="104"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="95"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="104"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="102"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="104"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="95"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3043,9 +3131,9 @@
       <c r="F46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="102"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="104"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="95"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3053,71 +3141,71 @@
       <c r="F47"/>
     </row>
     <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C48" s="101"/>
+      <c r="C48" s="92"/>
       <c r="D48"/>
-      <c r="E48" s="125"/>
+      <c r="E48" s="116"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="101"/>
+      <c r="C49" s="92"/>
       <c r="D49"/>
-      <c r="E49" s="125"/>
+      <c r="E49" s="116"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="101"/>
+      <c r="C50" s="92"/>
       <c r="D50"/>
-      <c r="E50" s="125"/>
+      <c r="E50" s="116"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="101"/>
+      <c r="C51" s="92"/>
       <c r="D51"/>
-      <c r="E51" s="125"/>
+      <c r="E51" s="116"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="101"/>
+      <c r="C52" s="92"/>
       <c r="D52"/>
-      <c r="E52" s="125"/>
+      <c r="E52" s="116"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C53" s="101"/>
+      <c r="C53" s="92"/>
       <c r="D53"/>
-      <c r="E53" s="125"/>
+      <c r="E53" s="116"/>
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="101"/>
-      <c r="D54" s="126" t="s">
+      <c r="C54" s="92"/>
+      <c r="D54" s="117" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="101"/>
+      <c r="C55" s="92"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="127">
+      <c r="B56" s="118">
         <v>44892</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="129">
+      <c r="D56" s="120">
         <v>1884182.28</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="127"/>
-      <c r="C57" s="130" t="s">
+      <c r="B57" s="118"/>
+      <c r="C57" s="121" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="22">
@@ -3127,24 +3215,24 @@
       <c r="F57"/>
     </row>
     <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="127">
+      <c r="B58" s="118">
         <v>44924</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="132">
+      <c r="D58" s="123">
         <v>-184075.5</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="127"/>
-      <c r="C59" s="133" t="s">
+      <c r="B59" s="118"/>
+      <c r="C59" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="134">
+      <c r="D59" s="125">
         <f>SUM(D56:D58)</f>
         <v>1008356.78</v>
       </c>
@@ -3152,15 +3240,15 @@
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="135"/>
-      <c r="C60" s="101"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="92"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="135"/>
-      <c r="C61" s="101"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="92"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -138,6 +138,24 @@
   <si>
     <t>NORMA LEDO   ( CENTRAL )</t>
   </si>
+  <si>
+    <t>PROSUBCA</t>
+  </si>
+  <si>
+    <t>EL PASTOR 2</t>
+  </si>
+  <si>
+    <t>HERRADURA</t>
+  </si>
+  <si>
+    <t>ISRAEL LEDO</t>
+  </si>
+  <si>
+    <t>ALBICIA</t>
+  </si>
+  <si>
+    <t>15-Ene-23--18-Ene-23--</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +167,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +391,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -721,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,9 +795,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,9 +844,6 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -843,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,9 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,17 +907,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,36 +985,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1462,42 +1493,42 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="78" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="18" style="82" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="72" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="144" customWidth="1"/>
+    <col min="7" max="7" width="18" style="75" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="B2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1535,14 +1566,14 @@
         <v>608</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="125" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H47" si="0">E4-G4</f>
         <v>0</v>
@@ -1563,8 +1594,8 @@
       <c r="E5" s="20">
         <v>22440</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
         <v>22440</v>
@@ -1584,191 +1615,280 @@
       <c r="E6" s="20">
         <v>3668</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>3668</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22">
+        <v>44937</v>
+      </c>
       <c r="B7" s="15">
         <v>611</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20">
+        <v>681</v>
+      </c>
+      <c r="F7" s="136">
+        <v>44944</v>
+      </c>
+      <c r="G7" s="21">
+        <v>681</v>
+      </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44938</v>
+      </c>
       <c r="B8" s="15">
         <v>612</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2808</v>
+      </c>
+      <c r="F8" s="137"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>2808</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44938</v>
+      </c>
       <c r="B9" s="15">
         <v>613</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6045</v>
+      </c>
+      <c r="F9" s="136">
+        <v>44939</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6045</v>
+      </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44939</v>
+      </c>
       <c r="B10" s="15">
         <v>614</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20">
+        <v>10290</v>
+      </c>
+      <c r="F10" s="137"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44939</v>
+      </c>
       <c r="B11" s="15">
         <v>615</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2897</v>
+      </c>
+      <c r="F11" s="136">
+        <v>44939</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2897</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44940</v>
+      </c>
       <c r="B12" s="15">
         <v>616</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="20">
+        <v>28065</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="21">
+        <f>5000+10800</f>
+        <v>15800</v>
+      </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44940</v>
+      </c>
       <c r="B13" s="15">
         <v>617</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20">
+        <v>5586</v>
+      </c>
+      <c r="F13" s="137"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44942</v>
+      </c>
       <c r="B14" s="15">
         <v>618</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4950</v>
+      </c>
+      <c r="F14" s="136"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44943</v>
+      </c>
       <c r="B15" s="15">
         <v>619</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="20">
+        <v>250</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44944</v>
+      </c>
       <c r="B16" s="15">
         <v>620</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1284</v>
+      </c>
+      <c r="F16" s="137"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44944</v>
+      </c>
       <c r="B17" s="15">
         <v>621</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="20">
+        <v>7591</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44945</v>
+      </c>
       <c r="B18" s="15">
         <v>622</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20">
+        <v>13942</v>
+      </c>
+      <c r="F18" s="136"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13942</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,11 +1896,11 @@
       <c r="B19" s="15">
         <v>623</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="17"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1791,11 +1911,11 @@
       <c r="B20" s="15">
         <v>624</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="17"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1806,11 +1926,11 @@
       <c r="B21" s="15">
         <v>625</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="17"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1821,11 +1941,11 @@
       <c r="B22" s="15">
         <v>626</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="17"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1836,11 +1956,11 @@
       <c r="B23" s="15">
         <v>627</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="17"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1851,356 +1971,356 @@
       <c r="B24" s="15">
         <v>628</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="17"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="15">
         <v>629</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="17"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="15">
         <v>630</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="17"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="15">
         <v>631</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="17"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="15">
         <v>632</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="15">
         <v>633</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="15">
         <v>634</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="15">
         <v>635</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="17"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="15">
         <v>636</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="17"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="15">
         <v>637</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="17"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="15">
         <v>638</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="17"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="15">
         <v>639</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="17"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="15">
         <v>640</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="17"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="15">
         <v>641</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="17"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="15">
         <v>642</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="17"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="77"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="15">
         <v>643</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="17"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="15">
         <v>644</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="17"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="15">
         <v>645</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="17"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="15">
         <v>646</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="17"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="15">
         <v>647</v>
       </c>
-      <c r="C43" s="29"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="17"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="86"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="77"/>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="15">
         <v>648</v>
       </c>
-      <c r="C44" s="29"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="17"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="15">
         <v>649</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="17"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="15">
         <v>650</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="17"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37">
-        <v>0</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36">
+        <v>0</v>
+      </c>
+      <c r="F47" s="138"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2208,228 +2328,228 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="43">
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41">
         <f>SUM(E4:E47)</f>
-        <v>26108</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43">
+        <v>110497</v>
+      </c>
+      <c r="F48" s="139"/>
+      <c r="G48" s="41">
         <f>SUM(G4:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="44">
+        <v>25423</v>
+      </c>
+      <c r="H48" s="42">
         <f>SUM(H23:H47)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="49" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="50" t="s">
+      <c r="F50" s="140"/>
+      <c r="G50" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="48"/>
+      <c r="H50" s="45"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="48"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="45"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="134">
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="130">
         <f>E48-G48</f>
-        <v>26108</v>
-      </c>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136"/>
+        <v>85074</v>
+      </c>
+      <c r="F52" s="131"/>
+      <c r="G52" s="132"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="44"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="137" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="52"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="63"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="63"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="59"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="63"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="63"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="59"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="63"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="63"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="63"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="63"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="59"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="63"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="59"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="63"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="63"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="63"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2439,7 +2559,8 @@
     <mergeCell ref="E54:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2458,25 +2579,25 @@
   <sheetData>
     <row r="9" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="4:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="139"/>
+      <c r="D10" s="121"/>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="140"/>
+      <c r="D11" s="122"/>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="140"/>
+      <c r="D12" s="122"/>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="140"/>
+      <c r="D13" s="122"/>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="140"/>
+      <c r="D14" s="122"/>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="140"/>
+      <c r="D15" s="122"/>
     </row>
     <row r="16" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="141"/>
+      <c r="D16" s="123"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2498,453 +2619,453 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="14" style="87" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="87"/>
-    <col min="4" max="4" width="20" style="53" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="92" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="14" style="78" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="78"/>
+    <col min="4" max="4" width="20" style="50" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="78" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="83" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="Z2" s="127" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="Z2" s="118" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="20">
         <f>E4+D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="95"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="95"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="95"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="95"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="95"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="95"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="95"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="95"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="95"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="95"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="95"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="86"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="104"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="104"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109">
+      <c r="F28" s="99"/>
+      <c r="G28" s="100">
         <v>44965</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="129">
+      <c r="I28" s="120">
         <v>-2029341.58</v>
       </c>
       <c r="J28" s="20">
@@ -2953,177 +3074,177 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>-2029341.58</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="102"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="111"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="102"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="111"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="102"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="114"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="93"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="114"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="114"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="93"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="95"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="93"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="95"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="93"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="93"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="95"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="93"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="95"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="93"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="115">
+      <c r="B41" s="84"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="93"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="95"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="93"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="95"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="93"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="95"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="93"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="93"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="95"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3131,9 +3252,9 @@
       <c r="F46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="95"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3141,98 +3262,98 @@
       <c r="F47"/>
     </row>
     <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C48" s="92"/>
+      <c r="C48" s="83"/>
       <c r="D48"/>
-      <c r="E48" s="116"/>
+      <c r="E48" s="107"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="92"/>
+      <c r="C49" s="83"/>
       <c r="D49"/>
-      <c r="E49" s="116"/>
+      <c r="E49" s="107"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="92"/>
+      <c r="C50" s="83"/>
       <c r="D50"/>
-      <c r="E50" s="116"/>
+      <c r="E50" s="107"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="92"/>
+      <c r="C51" s="83"/>
       <c r="D51"/>
-      <c r="E51" s="116"/>
+      <c r="E51" s="107"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="92"/>
+      <c r="C52" s="83"/>
       <c r="D52"/>
-      <c r="E52" s="116"/>
+      <c r="E52" s="107"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C53" s="92"/>
+      <c r="C53" s="83"/>
       <c r="D53"/>
-      <c r="E53" s="116"/>
+      <c r="E53" s="107"/>
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="92"/>
-      <c r="D54" s="117" t="s">
+      <c r="C54" s="83"/>
+      <c r="D54" s="108" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="92"/>
+      <c r="C55" s="83"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="118">
+      <c r="B56" s="109">
         <v>44892</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="120">
+      <c r="D56" s="111">
         <v>1884182.28</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="118"/>
-      <c r="C57" s="121" t="s">
+      <c r="B57" s="109"/>
+      <c r="C57" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>-691750</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="118">
+      <c r="B58" s="109">
         <v>44924</v>
       </c>
-      <c r="C58" s="122" t="s">
+      <c r="C58" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="123">
+      <c r="D58" s="114">
         <v>-184075.5</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="118"/>
-      <c r="C59" s="124" t="s">
+      <c r="B59" s="109"/>
+      <c r="C59" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="125">
+      <c r="D59" s="116">
         <f>SUM(D56:D58)</f>
         <v>1008356.78</v>
       </c>
@@ -3240,15 +3361,15 @@
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="126"/>
-      <c r="C60" s="92"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="83"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="126"/>
-      <c r="C61" s="92"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="83"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -154,7 +154,13 @@
     <t>ALBICIA</t>
   </si>
   <si>
-    <t>15-Ene-23--18-Ene-23--</t>
+    <t>15-Ene-23--18-Ene-23--22-ENE-23</t>
+  </si>
+  <si>
+    <t>23-Ene-23--24-Ene-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRADURA </t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,7 +915,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,42 +995,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1046,6 +1021,33 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,7 +1495,10 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1503,32 +1508,32 @@
     <col min="3" max="3" width="9.85546875" style="72" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="73" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="144" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="133" customWidth="1"/>
     <col min="7" max="7" width="18" style="75" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1566,13 +1571,13 @@
         <v>608</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="124" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="135"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="76"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H47" si="0">E4-G4</f>
@@ -1594,11 +1599,15 @@
       <c r="E5" s="20">
         <v>22440</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G5" s="21">
+        <v>22440</v>
+      </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>22440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1615,11 +1624,15 @@
       <c r="E6" s="20">
         <v>3668</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3668</v>
+      </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>3668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1636,7 +1649,7 @@
       <c r="E7" s="20">
         <v>681</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="126">
         <v>44944</v>
       </c>
       <c r="G7" s="21">
@@ -1659,13 +1672,17 @@
         <v>23</v>
       </c>
       <c r="E8" s="20">
-        <v>2808</v>
-      </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="77"/>
+        <v>28080</v>
+      </c>
+      <c r="F8" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G8" s="21">
+        <v>28080</v>
+      </c>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>2808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -1676,13 +1693,13 @@
         <v>613</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="123" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="20">
         <v>6045</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="126">
         <v>44939</v>
       </c>
       <c r="G9" s="21">
@@ -1707,11 +1724,15 @@
       <c r="E10" s="20">
         <v>10290</v>
       </c>
-      <c r="F10" s="137"/>
-      <c r="G10" s="77"/>
+      <c r="F10" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G10" s="21">
+        <v>10290</v>
+      </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>10290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,7 +1749,7 @@
       <c r="E11" s="20">
         <v>2897</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F11" s="126">
         <v>44939</v>
       </c>
       <c r="G11" s="21">
@@ -1739,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44940</v>
       </c>
@@ -1753,16 +1774,16 @@
       <c r="E12" s="20">
         <v>28065</v>
       </c>
-      <c r="F12" s="136" t="s">
+      <c r="F12" s="126" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="21">
-        <f>5000+10800</f>
-        <v>15800</v>
+        <f>5080+10800+12185</f>
+        <v>28065</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>12265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,11 +1800,15 @@
       <c r="E13" s="20">
         <v>5586</v>
       </c>
-      <c r="F13" s="137"/>
-      <c r="G13" s="77"/>
+      <c r="F13" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5586</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>5586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1800,11 +1825,15 @@
       <c r="E14" s="20">
         <v>4950</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G14" s="21">
+        <v>4950</v>
+      </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1821,7 +1850,7 @@
       <c r="E15" s="20">
         <v>250</v>
       </c>
-      <c r="F15" s="136"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
@@ -1842,11 +1871,15 @@
       <c r="E16" s="20">
         <v>1284</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="77"/>
+      <c r="F16" s="126">
+        <v>44951</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1284</v>
+      </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>1284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1863,11 +1896,15 @@
       <c r="E17" s="20">
         <v>7591</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="126">
+        <v>44947</v>
+      </c>
+      <c r="G17" s="21">
+        <v>7591</v>
+      </c>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>7591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1884,116 +1921,179 @@
       <c r="E18" s="20">
         <v>13942</v>
       </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G18" s="21">
+        <v>13942</v>
+      </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>13942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44946</v>
+      </c>
       <c r="B19" s="15">
         <v>623</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20">
+        <v>9350</v>
+      </c>
+      <c r="F19" s="126">
+        <v>44942</v>
+      </c>
+      <c r="G19" s="21">
+        <v>9350</v>
+      </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44947</v>
+      </c>
       <c r="B20" s="15">
         <v>624</v>
       </c>
       <c r="C20" s="28"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="77"/>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20">
+        <v>26352</v>
+      </c>
+      <c r="F20" s="126">
+        <v>44952</v>
+      </c>
+      <c r="G20" s="21">
+        <v>26352</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44948</v>
+      </c>
       <c r="B21" s="15">
         <v>625</v>
       </c>
       <c r="C21" s="28"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="21"/>
+      <c r="D21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="20">
+        <v>21187</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="21">
+        <f>6100+9800+4000+1287</f>
+        <v>21187</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44951</v>
+      </c>
       <c r="B22" s="15">
         <v>626</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1174</v>
+      </c>
+      <c r="F22" s="126"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44951</v>
+      </c>
       <c r="B23" s="15">
         <v>627</v>
       </c>
       <c r="C23" s="28"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="21"/>
+      <c r="D23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2842</v>
+      </c>
+      <c r="F23" s="126">
+        <v>44951</v>
+      </c>
+      <c r="G23" s="21">
+        <v>2842</v>
+      </c>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44951</v>
+      </c>
       <c r="B24" s="15">
         <v>628</v>
       </c>
       <c r="C24" s="28"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="136"/>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20">
+        <v>9540</v>
+      </c>
+      <c r="F24" s="126"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="22">
+        <v>44952</v>
+      </c>
       <c r="B25" s="15">
         <v>629</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="77"/>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="20">
+        <v>90643</v>
+      </c>
+      <c r="F25" s="126"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90643</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,7 +2104,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="17"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="136"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
@@ -2019,7 +2119,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="17"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="136"/>
+      <c r="F27" s="126"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
@@ -2034,7 +2134,7 @@
       <c r="C28" s="28"/>
       <c r="D28" s="27"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="136"/>
+      <c r="F28" s="126"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
@@ -2049,8 +2149,8 @@
       <c r="C29" s="28"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2064,8 +2164,8 @@
       <c r="C30" s="28"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="77"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2079,8 +2179,8 @@
       <c r="C31" s="28"/>
       <c r="D31" s="17"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2094,8 +2194,8 @@
       <c r="C32" s="28"/>
       <c r="D32" s="17"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="77"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2109,7 +2209,7 @@
       <c r="C33" s="28"/>
       <c r="D33" s="17"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="136"/>
+      <c r="F33" s="126"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
@@ -2124,8 +2224,8 @@
       <c r="C34" s="28"/>
       <c r="D34" s="17"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="77"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2139,8 +2239,8 @@
       <c r="C35" s="28"/>
       <c r="D35" s="17"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="77"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2154,8 +2254,8 @@
       <c r="C36" s="28"/>
       <c r="D36" s="17"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="77"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2169,7 +2269,7 @@
       <c r="C37" s="28"/>
       <c r="D37" s="17"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="136"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
@@ -2184,8 +2284,8 @@
       <c r="C38" s="28"/>
       <c r="D38" s="17"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="77"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2199,7 +2299,7 @@
       <c r="C39" s="28"/>
       <c r="D39" s="17"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="136"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
@@ -2214,7 +2314,7 @@
       <c r="C40" s="28"/>
       <c r="D40" s="17"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="136"/>
+      <c r="F40" s="126"/>
       <c r="G40" s="21"/>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
@@ -2229,8 +2329,8 @@
       <c r="C41" s="28"/>
       <c r="D41" s="17"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="77"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2244,8 +2344,8 @@
       <c r="C42" s="28"/>
       <c r="D42" s="17"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="77"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2259,8 +2359,8 @@
       <c r="C43" s="28"/>
       <c r="D43" s="17"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="77"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2274,8 +2374,8 @@
       <c r="C44" s="28"/>
       <c r="D44" s="17"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="77"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2289,7 +2389,7 @@
       <c r="C45" s="28"/>
       <c r="D45" s="17"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="136"/>
+      <c r="F45" s="126"/>
       <c r="G45" s="21"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
@@ -2304,7 +2404,7 @@
       <c r="C46" s="28"/>
       <c r="D46" s="17"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="136"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="21"/>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
@@ -2319,7 +2419,7 @@
       <c r="E47" s="36">
         <v>0</v>
       </c>
-      <c r="F47" s="138"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="37"/>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
@@ -2333,16 +2433,16 @@
       <c r="D48" s="40"/>
       <c r="E48" s="41">
         <f>SUM(E4:E47)</f>
-        <v>110497</v>
-      </c>
-      <c r="F48" s="139"/>
+        <v>296857</v>
+      </c>
+      <c r="F48" s="128"/>
       <c r="G48" s="41">
         <f>SUM(G4:G47)</f>
-        <v>25423</v>
+        <v>195250</v>
       </c>
       <c r="H48" s="42">
         <f>SUM(H23:H47)</f>
-        <v>0</v>
+        <v>100183</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -2351,7 +2451,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="40"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="140"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="44"/>
       <c r="H49" s="45"/>
       <c r="I49" s="2"/>
@@ -2363,7 +2463,7 @@
       <c r="E50" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="140"/>
+      <c r="F50" s="129"/>
       <c r="G50" s="47" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2475,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="40"/>
       <c r="E51" s="46"/>
-      <c r="F51" s="140"/>
+      <c r="F51" s="129"/>
       <c r="G51" s="47"/>
       <c r="H51" s="45"/>
       <c r="I51" s="2"/>
@@ -2384,12 +2484,12 @@
       <c r="B52" s="38"/>
       <c r="C52" s="39"/>
       <c r="D52" s="40"/>
-      <c r="E52" s="130">
+      <c r="E52" s="138">
         <f>E48-G48</f>
-        <v>85074</v>
-      </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="132"/>
+        <v>101607</v>
+      </c>
+      <c r="F52" s="139"/>
+      <c r="G52" s="140"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2397,7 +2497,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="40"/>
       <c r="E53" s="43"/>
-      <c r="F53" s="140"/>
+      <c r="F53" s="129"/>
       <c r="G53" s="44"/>
       <c r="I53" s="2"/>
     </row>
@@ -2405,11 +2505,11 @@
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
       <c r="D54" s="40"/>
-      <c r="E54" s="133" t="s">
+      <c r="E54" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,7 +2517,7 @@
       <c r="C55" s="49"/>
       <c r="D55" s="50"/>
       <c r="E55" s="51"/>
-      <c r="F55" s="141"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="52"/>
       <c r="I55" s="2"/>
     </row>
@@ -2438,7 +2538,7 @@
       <c r="C57" s="62"/>
       <c r="D57" s="63"/>
       <c r="E57" s="64"/>
-      <c r="F57" s="142"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="65"/>
       <c r="H57" s="59"/>
       <c r="I57" s="2"/>
@@ -2449,7 +2549,7 @@
       <c r="C58" s="62"/>
       <c r="D58" s="63"/>
       <c r="E58" s="64"/>
-      <c r="F58" s="142"/>
+      <c r="F58" s="131"/>
       <c r="G58" s="65"/>
       <c r="H58" s="59"/>
       <c r="I58" s="2"/>
@@ -2460,7 +2560,7 @@
       <c r="C59" s="62"/>
       <c r="D59" s="63"/>
       <c r="E59" s="64"/>
-      <c r="F59" s="142"/>
+      <c r="F59" s="131"/>
       <c r="G59" s="65"/>
       <c r="H59" s="59"/>
       <c r="I59" s="2"/>
@@ -2471,7 +2571,7 @@
       <c r="C60" s="62"/>
       <c r="D60" s="63"/>
       <c r="E60" s="64"/>
-      <c r="F60" s="142"/>
+      <c r="F60" s="131"/>
       <c r="G60" s="65"/>
       <c r="H60" s="59"/>
       <c r="I60" s="2"/>
@@ -2482,7 +2582,7 @@
       <c r="C61" s="62"/>
       <c r="D61" s="63"/>
       <c r="E61" s="64"/>
-      <c r="F61" s="142"/>
+      <c r="F61" s="131"/>
       <c r="G61" s="65"/>
       <c r="H61" s="59"/>
       <c r="I61" s="2"/>
@@ -2493,7 +2593,7 @@
       <c r="C62" s="62"/>
       <c r="D62" s="63"/>
       <c r="E62" s="64"/>
-      <c r="F62" s="142"/>
+      <c r="F62" s="131"/>
       <c r="G62" s="65"/>
       <c r="H62" s="59"/>
       <c r="I62" s="2"/>
@@ -2504,7 +2604,7 @@
       <c r="C63" s="62"/>
       <c r="D63" s="63"/>
       <c r="E63" s="64"/>
-      <c r="F63" s="142"/>
+      <c r="F63" s="131"/>
       <c r="G63" s="65"/>
       <c r="H63" s="59"/>
       <c r="I63" s="2"/>
@@ -2515,7 +2615,7 @@
       <c r="C64" s="62"/>
       <c r="D64" s="63"/>
       <c r="E64" s="64"/>
-      <c r="F64" s="142"/>
+      <c r="F64" s="131"/>
       <c r="G64" s="65"/>
       <c r="H64" s="59"/>
       <c r="I64" s="2"/>
@@ -2526,7 +2626,7 @@
       <c r="C65" s="62"/>
       <c r="D65" s="63"/>
       <c r="E65" s="64"/>
-      <c r="F65" s="142"/>
+      <c r="F65" s="131"/>
       <c r="G65" s="65"/>
       <c r="H65" s="59"/>
       <c r="I65" s="2"/>
@@ -2537,7 +2637,7 @@
       <c r="C66" s="62"/>
       <c r="D66" s="63"/>
       <c r="E66" s="64"/>
-      <c r="F66" s="142"/>
+      <c r="F66" s="131"/>
       <c r="G66" s="65"/>
       <c r="H66" s="59"/>
     </row>
@@ -2547,7 +2647,7 @@
       <c r="C67" s="67"/>
       <c r="D67" s="68"/>
       <c r="E67" s="69"/>
-      <c r="F67" s="143"/>
+      <c r="F67" s="132"/>
       <c r="G67" s="70"/>
       <c r="H67" s="59"/>
     </row>
@@ -2579,25 +2679,25 @@
   <sheetData>
     <row r="9" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="4:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="121"/>
+      <c r="D10" s="120"/>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="122"/>
+      <c r="D11" s="121"/>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="122"/>
+      <c r="D12" s="121"/>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="122"/>
+      <c r="D13" s="121"/>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="122"/>
+      <c r="D14" s="121"/>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="122"/>
+      <c r="D15" s="121"/>
     </row>
     <row r="16" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="123"/>
+      <c r="D16" s="122"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2619,453 +2719,453 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="78" customWidth="1"/>
-    <col min="2" max="2" width="14" style="78" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="78"/>
+    <col min="1" max="1" width="3.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="14" style="77" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="77"/>
     <col min="4" max="4" width="20" style="50" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="78" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="82" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="Z2" s="118" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="Z2" s="117" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="20">
         <f>E4+D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="86"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="21"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="86"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="86"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="85"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="86"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="86"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="86"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="86"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="85"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="86"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="86"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="86"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="86"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="85"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="95"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="95"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="93"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="96"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="98"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100">
+      <c r="F28" s="98"/>
+      <c r="G28" s="99">
         <v>44965</v>
       </c>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="120">
+      <c r="I28" s="119">
         <v>-2029341.58</v>
       </c>
       <c r="J28" s="20">
@@ -3074,177 +3174,177 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>-2029341.58</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B31" s="53"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="102"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="105"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="104"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="105"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="105"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="104"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="84"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="84"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="85"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="106">
+      <c r="B41" s="83"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="86"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="86"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="86"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3252,9 +3352,9 @@
       <c r="F46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="84"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3262,71 +3362,71 @@
       <c r="F47"/>
     </row>
     <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C48" s="83"/>
+      <c r="C48" s="82"/>
       <c r="D48"/>
-      <c r="E48" s="107"/>
+      <c r="E48" s="106"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="83"/>
+      <c r="C49" s="82"/>
       <c r="D49"/>
-      <c r="E49" s="107"/>
+      <c r="E49" s="106"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="83"/>
+      <c r="C50" s="82"/>
       <c r="D50"/>
-      <c r="E50" s="107"/>
+      <c r="E50" s="106"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="83"/>
+      <c r="C51" s="82"/>
       <c r="D51"/>
-      <c r="E51" s="107"/>
+      <c r="E51" s="106"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="83"/>
+      <c r="C52" s="82"/>
       <c r="D52"/>
-      <c r="E52" s="107"/>
+      <c r="E52" s="106"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C53" s="83"/>
+      <c r="C53" s="82"/>
       <c r="D53"/>
-      <c r="E53" s="107"/>
+      <c r="E53" s="106"/>
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="83"/>
-      <c r="D54" s="108" t="s">
+      <c r="C54" s="82"/>
+      <c r="D54" s="107" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="83"/>
+      <c r="C55" s="82"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="109">
+      <c r="B56" s="108">
         <v>44892</v>
       </c>
-      <c r="C56" s="110" t="s">
+      <c r="C56" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="111">
+      <c r="D56" s="110">
         <v>1884182.28</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="109"/>
-      <c r="C57" s="112" t="s">
+      <c r="B57" s="108"/>
+      <c r="C57" s="111" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="21">
@@ -3336,24 +3436,24 @@
       <c r="F57"/>
     </row>
     <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="109">
+      <c r="B58" s="108">
         <v>44924</v>
       </c>
-      <c r="C58" s="113" t="s">
+      <c r="C58" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="114">
+      <c r="D58" s="113">
         <v>-184075.5</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="109"/>
-      <c r="C59" s="115" t="s">
+      <c r="B59" s="108"/>
+      <c r="C59" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="116">
+      <c r="D59" s="115">
         <f>SUM(D56:D58)</f>
         <v>1008356.78</v>
       </c>
@@ -3361,15 +3461,15 @@
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
-      <c r="C60" s="83"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="82"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="117"/>
-      <c r="C61" s="83"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="82"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS     ZAVALETA  ENERO 2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -173,7 +173,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +256,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF660066"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -753,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,7 +807,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,10 +843,10 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -880,7 +871,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -925,7 +916,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -935,30 +926,30 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -969,32 +960,32 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="27" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="26" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1034,16 +1025,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,45 +1486,45 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="18" style="75" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="132" customWidth="1"/>
+    <col min="7" max="7" width="18" style="74" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="B2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1571,14 +1562,14 @@
         <v>608</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H47" si="0">E4-G4</f>
         <v>0</v>
@@ -1599,7 +1590,7 @@
       <c r="E5" s="20">
         <v>22440</v>
       </c>
-      <c r="F5" s="126">
+      <c r="F5" s="125">
         <v>44952</v>
       </c>
       <c r="G5" s="21">
@@ -1624,7 +1615,7 @@
       <c r="E6" s="20">
         <v>3668</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="125">
         <v>44952</v>
       </c>
       <c r="G6" s="21">
@@ -1649,7 +1640,7 @@
       <c r="E7" s="20">
         <v>681</v>
       </c>
-      <c r="F7" s="126">
+      <c r="F7" s="125">
         <v>44944</v>
       </c>
       <c r="G7" s="21">
@@ -1674,7 +1665,7 @@
       <c r="E8" s="20">
         <v>28080</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="125">
         <v>44952</v>
       </c>
       <c r="G8" s="21">
@@ -1693,13 +1684,13 @@
         <v>613</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="122" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="20">
         <v>6045</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="125">
         <v>44939</v>
       </c>
       <c r="G9" s="21">
@@ -1724,7 +1715,7 @@
       <c r="E10" s="20">
         <v>10290</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="125">
         <v>44952</v>
       </c>
       <c r="G10" s="21">
@@ -1749,7 +1740,7 @@
       <c r="E11" s="20">
         <v>2897</v>
       </c>
-      <c r="F11" s="126">
+      <c r="F11" s="125">
         <v>44939</v>
       </c>
       <c r="G11" s="21">
@@ -1767,14 +1758,14 @@
       <c r="B12" s="15">
         <v>616</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="20">
         <v>28065</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="125" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="21">
@@ -1793,14 +1784,14 @@
       <c r="B13" s="15">
         <v>617</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="20">
         <v>5586</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="125">
         <v>44952</v>
       </c>
       <c r="G13" s="21">
@@ -1818,14 +1809,14 @@
       <c r="B14" s="15">
         <v>618</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="20">
         <v>4950</v>
       </c>
-      <c r="F14" s="126">
+      <c r="F14" s="125">
         <v>44952</v>
       </c>
       <c r="G14" s="21">
@@ -1843,14 +1834,14 @@
       <c r="B15" s="15">
         <v>619</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="20">
         <v>250</v>
       </c>
-      <c r="F15" s="126"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
@@ -1864,14 +1855,14 @@
       <c r="B16" s="15">
         <v>620</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="20">
         <v>1284</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="125">
         <v>44951</v>
       </c>
       <c r="G16" s="21">
@@ -1889,14 +1880,14 @@
       <c r="B17" s="15">
         <v>621</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="20">
         <v>7591</v>
       </c>
-      <c r="F17" s="126">
+      <c r="F17" s="125">
         <v>44947</v>
       </c>
       <c r="G17" s="21">
@@ -1914,14 +1905,14 @@
       <c r="B18" s="15">
         <v>622</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="20">
         <v>13942</v>
       </c>
-      <c r="F18" s="126">
+      <c r="F18" s="125">
         <v>44952</v>
       </c>
       <c r="G18" s="21">
@@ -1939,14 +1930,14 @@
       <c r="B19" s="15">
         <v>623</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="20">
         <v>9350</v>
       </c>
-      <c r="F19" s="126">
+      <c r="F19" s="125">
         <v>44942</v>
       </c>
       <c r="G19" s="21">
@@ -1964,14 +1955,14 @@
       <c r="B20" s="15">
         <v>624</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="20">
         <v>26352</v>
       </c>
-      <c r="F20" s="126">
+      <c r="F20" s="125">
         <v>44952</v>
       </c>
       <c r="G20" s="21">
@@ -1989,14 +1980,14 @@
       <c r="B21" s="15">
         <v>625</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="20">
         <v>21187</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="125" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="21">
@@ -2015,14 +2006,14 @@
       <c r="B22" s="15">
         <v>626</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="20">
         <v>1174</v>
       </c>
-      <c r="F22" s="126"/>
+      <c r="F22" s="125"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
@@ -2036,14 +2027,14 @@
       <c r="B23" s="15">
         <v>627</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="20">
         <v>2842</v>
       </c>
-      <c r="F23" s="126">
+      <c r="F23" s="125">
         <v>44951</v>
       </c>
       <c r="G23" s="21">
@@ -2061,14 +2052,14 @@
       <c r="B24" s="15">
         <v>628</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="20">
         <v>9540</v>
       </c>
-      <c r="F24" s="126"/>
+      <c r="F24" s="125"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
@@ -2082,14 +2073,14 @@
       <c r="B25" s="15">
         <v>629</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="20">
         <v>90643</v>
       </c>
-      <c r="F25" s="126"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
@@ -2097,59 +2088,75 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="22">
+        <v>44953</v>
+      </c>
       <c r="B26" s="15">
         <v>630</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="126"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="20">
+        <v>22032</v>
+      </c>
+      <c r="F26" s="125"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22032</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="22">
+        <v>44953</v>
+      </c>
       <c r="B27" s="15">
         <v>631</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="126"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20">
+        <v>4400</v>
+      </c>
+      <c r="F27" s="125"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="22">
+        <v>44953</v>
+      </c>
       <c r="B28" s="15">
         <v>632</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="126"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="20">
+        <v>15393</v>
+      </c>
+      <c r="F28" s="125"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15393</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
-      <c r="B29" s="15">
-        <v>633</v>
-      </c>
-      <c r="C29" s="28"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="126"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
@@ -2158,13 +2165,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="15">
-        <v>634</v>
-      </c>
-      <c r="C30" s="28"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="126"/>
+      <c r="F30" s="125"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
@@ -2173,13 +2178,11 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="15">
-        <v>635</v>
-      </c>
-      <c r="C31" s="28"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="17"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="126"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
@@ -2188,13 +2191,11 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="15">
-        <v>636</v>
-      </c>
-      <c r="C32" s="28"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="17"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="126"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
@@ -2203,13 +2204,11 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="15">
-        <v>637</v>
-      </c>
-      <c r="C33" s="28"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="17"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="126"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
@@ -2218,13 +2217,11 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="15">
-        <v>638</v>
-      </c>
-      <c r="C34" s="28"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="17"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="126"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
@@ -2233,13 +2230,11 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="15">
-        <v>639</v>
-      </c>
-      <c r="C35" s="28"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="17"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="126"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
@@ -2248,13 +2243,11 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="15">
-        <v>640</v>
-      </c>
-      <c r="C36" s="28"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="17"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="126"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="21"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
@@ -2263,13 +2256,11 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="15">
-        <v>641</v>
-      </c>
-      <c r="C37" s="28"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="17"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="126"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
@@ -2278,13 +2269,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="15">
-        <v>642</v>
-      </c>
-      <c r="C38" s="28"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="17"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="126"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="21"/>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
@@ -2293,13 +2282,11 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="15">
-        <v>643</v>
-      </c>
-      <c r="C39" s="28"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="17"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="126"/>
+      <c r="F39" s="125"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
@@ -2308,13 +2295,11 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="15">
-        <v>644</v>
-      </c>
-      <c r="C40" s="28"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="17"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="126"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="21"/>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
@@ -2323,13 +2308,11 @@
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="15">
-        <v>645</v>
-      </c>
-      <c r="C41" s="28"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="17"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="126"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="21"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
@@ -2338,13 +2321,11 @@
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="15">
-        <v>646</v>
-      </c>
-      <c r="C42" s="28"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="17"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="126"/>
+      <c r="F42" s="125"/>
       <c r="G42" s="21"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
@@ -2353,13 +2334,11 @@
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="15">
-        <v>647</v>
-      </c>
-      <c r="C43" s="28"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="17"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="126"/>
+      <c r="F43" s="125"/>
       <c r="G43" s="21"/>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
@@ -2368,13 +2347,11 @@
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
-      <c r="B44" s="15">
-        <v>648</v>
-      </c>
-      <c r="C44" s="28"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="17"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="126"/>
+      <c r="F44" s="125"/>
       <c r="G44" s="21"/>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
@@ -2383,13 +2360,11 @@
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
-      <c r="B45" s="15">
-        <v>649</v>
-      </c>
-      <c r="C45" s="28"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="17"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="126"/>
+      <c r="F45" s="125"/>
       <c r="G45" s="21"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
@@ -2398,13 +2373,11 @@
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
-      <c r="B46" s="15">
-        <v>650</v>
-      </c>
-      <c r="C46" s="28"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="17"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="126"/>
+      <c r="F46" s="125"/>
       <c r="G46" s="21"/>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
@@ -2412,15 +2385,15 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36">
-        <v>0</v>
-      </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="37"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="126"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2428,228 +2401,228 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>296857</v>
-      </c>
-      <c r="F48" s="128"/>
-      <c r="G48" s="41">
+        <v>338682</v>
+      </c>
+      <c r="F48" s="127"/>
+      <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
         <v>195250</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
-        <v>100183</v>
+        <v>142008</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="46" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="129"/>
-      <c r="G50" s="47" t="s">
+      <c r="F50" s="128"/>
+      <c r="G50" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="44"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="45"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="44"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="138">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="137">
         <f>E48-G48</f>
-        <v>101607</v>
-      </c>
-      <c r="F52" s="139"/>
-      <c r="G52" s="140"/>
+        <v>143432</v>
+      </c>
+      <c r="F52" s="138"/>
+      <c r="G52" s="139"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="44"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="43"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="141" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="52"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="51"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="59"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="59"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="59"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="59"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="58"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="59"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="58"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="59"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="58"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="59"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="59"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="59"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="58"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="59"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="58"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="59"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="58"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="59"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2679,25 +2652,25 @@
   <sheetData>
     <row r="9" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="4:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="120"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="121"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="121"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="121"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="121"/>
+      <c r="D14" s="120"/>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="121"/>
+      <c r="D15" s="120"/>
     </row>
     <row r="16" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="122"/>
+      <c r="D16" s="121"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2719,453 +2692,453 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="77" customWidth="1"/>
-    <col min="2" max="2" width="14" style="77" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="77"/>
-    <col min="4" max="4" width="20" style="50" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="77" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="82" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="76"/>
+    <col min="4" max="4" width="20" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="Z2" s="117" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="Z2" s="116" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="20">
         <f>E4+D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="85"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="21"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="85"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="85"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="85"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="85"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="85"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="85"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="85"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="85"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="85"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="85"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="94"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="94"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="99">
+      <c r="F28" s="97"/>
+      <c r="G28" s="98">
         <v>44965</v>
       </c>
-      <c r="H28" s="118" t="s">
+      <c r="H28" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="119">
+      <c r="I28" s="118">
         <v>-2029341.58</v>
       </c>
       <c r="J28" s="20">
@@ -3174,177 +3147,177 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>-2029341.58</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="101"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="101"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="83"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="104"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="83"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="104"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="104"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="83"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="85"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="83"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="85"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="83"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="85"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="83"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="85"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="83"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="85"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="83"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="85"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="83"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="105">
+      <c r="B41" s="82"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="83"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="85"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="83"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="85"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="83"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="85"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="83"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="85"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="83"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="85"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3352,9 +3325,9 @@
       <c r="F46"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="83"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="85"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3362,71 +3335,71 @@
       <c r="F47"/>
     </row>
     <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C48" s="82"/>
+      <c r="C48" s="81"/>
       <c r="D48"/>
-      <c r="E48" s="106"/>
+      <c r="E48" s="105"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="82"/>
+      <c r="C49" s="81"/>
       <c r="D49"/>
-      <c r="E49" s="106"/>
+      <c r="E49" s="105"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C50" s="82"/>
+      <c r="C50" s="81"/>
       <c r="D50"/>
-      <c r="E50" s="106"/>
+      <c r="E50" s="105"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="82"/>
+      <c r="C51" s="81"/>
       <c r="D51"/>
-      <c r="E51" s="106"/>
+      <c r="E51" s="105"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="82"/>
+      <c r="C52" s="81"/>
       <c r="D52"/>
-      <c r="E52" s="106"/>
+      <c r="E52" s="105"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C53" s="82"/>
+      <c r="C53" s="81"/>
       <c r="D53"/>
-      <c r="E53" s="106"/>
+      <c r="E53" s="105"/>
       <c r="F53"/>
     </row>
     <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="C54" s="82"/>
-      <c r="D54" s="107" t="s">
+      <c r="C54" s="81"/>
+      <c r="D54" s="106" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
+      <c r="C55" s="81"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="108">
+      <c r="B56" s="107">
         <v>44892</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="110">
+      <c r="D56" s="109">
         <v>1884182.28</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="108"/>
-      <c r="C57" s="111" t="s">
+      <c r="B57" s="107"/>
+      <c r="C57" s="110" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="21">
@@ -3436,24 +3409,24 @@
       <c r="F57"/>
     </row>
     <row r="58" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="108">
+      <c r="B58" s="107">
         <v>44924</v>
       </c>
-      <c r="C58" s="112" t="s">
+      <c r="C58" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="113">
+      <c r="D58" s="112">
         <v>-184075.5</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="108"/>
-      <c r="C59" s="114" t="s">
+      <c r="B59" s="107"/>
+      <c r="C59" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="115">
+      <c r="D59" s="114">
         <f>SUM(D56:D58)</f>
         <v>1008356.78</v>
       </c>
@@ -3461,15 +3434,15 @@
       <c r="F59"/>
     </row>
     <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="116"/>
-      <c r="C60" s="82"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="81"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="116"/>
-      <c r="C61" s="82"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="81"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
